--- a/Umlageverfahren/IterativesVerfahren.xlsx
+++ b/Umlageverfahren/IterativesVerfahren.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasholzer/Repositories/KLR-Cheats/Umlageverfahren/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A861A5E-7721-924B-8D0F-1E79C05B1876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731469C5-7D13-5647-9C9A-A197410DB0FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9580" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{F75368BA-3982-7540-9BAA-65707A5522C9}"/>
+    <workbookView xWindow="-9600" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{F75368BA-3982-7540-9BAA-65707A5522C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -435,11 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -460,6 +456,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -962,15 +962,432 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thick">
+          <color rgb="FFFF0000"/>
         </right>
         <top/>
         <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thick">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1021,423 +1438,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thick">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thick">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1810,38 +1810,38 @@
     <tableColumn id="12" xr3:uid="{E24140AD-CE53-DC47-AFF4-56FBA45F54BA}" name="Spalte12" dataDxfId="51"/>
     <tableColumn id="13" xr3:uid="{A2017E10-3611-C843-8566-173DBBC85554}" name="Spalte13" dataDxfId="50"/>
     <tableColumn id="14" xr3:uid="{18611178-6CB4-A544-8B78-E22545517840}" name="Spalte14" dataDxfId="49"/>
-    <tableColumn id="18" xr3:uid="{A0E26183-0BAE-1040-8110-4498FA65510D}" name="Column1" headerRowDxfId="25" dataDxfId="26"/>
+    <tableColumn id="18" xr3:uid="{A0E26183-0BAE-1040-8110-4498FA65510D}" name="Column1" headerRowDxfId="48" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{62F4BC20-01E4-D046-8A43-0E2DB999151B}" name="Tabelle7" displayName="Tabelle7" ref="A7:P9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="48" tableBorderDxfId="47" totalsRowBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{62F4BC20-01E4-D046-8A43-0E2DB999151B}" name="Tabelle7" displayName="Tabelle7" ref="A7:P9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{447C62F1-6AC6-1944-A69C-24157C3758F0}" name="Spalte1" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{E48620FF-4FDC-A048-A9F1-A44C920C5153}" name="Spalte2" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{4B0C0FFF-1874-A04C-9C90-F6206B7CCE19}" name="Spalte3" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{539BA31A-E3C3-2F45-B553-AE025B0BCE00}" name="Spalte4" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{133F4C6E-2C85-D347-A4AE-11B53CD2B3F2}" name="Spalte5" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{F54D43A1-3259-BD46-BC7D-57E909DFA2A3}" name="Spalte6" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{5A71628C-5CFD-2645-A687-0A9AB52E7EDC}" name="Spalte7" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{1C8477C0-D557-9A43-8E9B-4ACAFDE1CEDA}" name="Spalte8" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{ACF7F37E-10D3-5A44-A0C0-4DD757D02DE8}" name="Spalte9" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{44F9C231-3AC4-DE4C-8D73-9FFCBEE873E7}" name="Spalte10" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{63244CD4-16E7-8045-BE7B-BC93FD654764}" name="Spalte11" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{8EF91381-0C3F-A94C-89EB-C53A7888F5F2}" name="Spalte12" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{34C60E5B-1EC6-9642-AEB5-1516FAC1ABCF}" name="Spalte13" dataDxfId="33"/>
-    <tableColumn id="14" xr3:uid="{63849939-1981-AA47-BC4F-09943F79F998}" name="Spalte14" dataDxfId="32"/>
-    <tableColumn id="15" xr3:uid="{53BB6828-8184-8B4A-B5BA-73391D9E71E3}" name="Spalte15" dataDxfId="31"/>
-    <tableColumn id="16" xr3:uid="{D591120D-5569-6546-9511-E4CA806609CC}" name="Column1" headerRowDxfId="27" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{447C62F1-6AC6-1944-A69C-24157C3758F0}" name="Spalte1" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{E48620FF-4FDC-A048-A9F1-A44C920C5153}" name="Spalte2" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{4B0C0FFF-1874-A04C-9C90-F6206B7CCE19}" name="Spalte3" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{539BA31A-E3C3-2F45-B553-AE025B0BCE00}" name="Spalte4" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{133F4C6E-2C85-D347-A4AE-11B53CD2B3F2}" name="Spalte5" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{F54D43A1-3259-BD46-BC7D-57E909DFA2A3}" name="Spalte6" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{5A71628C-5CFD-2645-A687-0A9AB52E7EDC}" name="Spalte7" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{1C8477C0-D557-9A43-8E9B-4ACAFDE1CEDA}" name="Spalte8" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{ACF7F37E-10D3-5A44-A0C0-4DD757D02DE8}" name="Spalte9" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{44F9C231-3AC4-DE4C-8D73-9FFCBEE873E7}" name="Spalte10" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{63244CD4-16E7-8045-BE7B-BC93FD654764}" name="Spalte11" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{8EF91381-0C3F-A94C-89EB-C53A7888F5F2}" name="Spalte12" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{34C60E5B-1EC6-9642-AEB5-1516FAC1ABCF}" name="Spalte13" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{63849939-1981-AA47-BC4F-09943F79F998}" name="Spalte14" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{53BB6828-8184-8B4A-B5BA-73391D9E71E3}" name="Spalte15" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{D591120D-5569-6546-9511-E4CA806609CC}" name="Column1" headerRowDxfId="28" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F6657E5E-A1A0-9C4B-8E07-6986DA95884F}" name="Tabelle2" displayName="Tabelle2" ref="A27:O41" headerRowCount="0" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F6657E5E-A1A0-9C4B-8E07-6986DA95884F}" name="Tabelle2" displayName="Tabelle2" ref="A27:O41" headerRowCount="0" totalsRowShown="0" headerRowDxfId="26">
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{1C882130-DB09-0846-99F8-B1E7BDB7A203}" name="Spalte1"/>
     <tableColumn id="2" xr3:uid="{99A861EC-FB54-8346-9117-1BE3F569D436}" name="Spalte2"/>
@@ -1849,7 +1849,7 @@
     <tableColumn id="4" xr3:uid="{963C0970-FA40-0142-9722-213287244D06}" name="Spalte4"/>
     <tableColumn id="5" xr3:uid="{C0DE8604-8896-3043-8AF2-62640C08947B}" name="Spalte5"/>
     <tableColumn id="6" xr3:uid="{E935FE78-6015-974E-92EB-E1A05C2D805B}" name="Spalte6"/>
-    <tableColumn id="7" xr3:uid="{6B8173CF-7C5E-274D-BD1F-CD84486A474F}" name="Spalte7" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{6B8173CF-7C5E-274D-BD1F-CD84486A474F}" name="Spalte7" dataDxfId="25"/>
     <tableColumn id="8" xr3:uid="{0B953171-6A7D-244E-A4CA-F9FDF8876319}" name="Spalte8"/>
     <tableColumn id="9" xr3:uid="{270D67EA-CCF5-5A48-844A-15E622447E1E}" name="Spalte9"/>
     <tableColumn id="10" xr3:uid="{7A6443C3-2F47-704D-A009-B1DB91688EC1}" name="Spalte10"/>
@@ -2238,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5A3487-2DDB-C245-8D72-2B9151C5BC02}">
   <dimension ref="A3:U122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="V56" sqref="V56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2334,28 +2334,16 @@
       <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="13">
-        <v>20000</v>
-      </c>
-      <c r="C9" s="13">
-        <v>7000</v>
-      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="15">
-        <v>65000</v>
-      </c>
-      <c r="I9" s="13">
-        <v>33000</v>
-      </c>
-      <c r="J9" s="13">
-        <v>13000</v>
-      </c>
-      <c r="K9" s="13">
-        <v>12000</v>
-      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
@@ -2392,12 +2380,12 @@
       <c r="Q15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R15" s="28" t="s">
+      <c r="R15" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="S15" s="28"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
@@ -2416,10 +2404,10 @@
       <c r="F16" s="20">
         <v>5</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="32">
         <v>6</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="33">
         <v>7</v>
       </c>
       <c r="I16" s="20">
@@ -2443,7 +2431,7 @@
       <c r="O16" s="27">
         <v>14</v>
       </c>
-      <c r="Q16" s="29"/>
+      <c r="Q16" s="28"/>
       <c r="R16" s="1" t="s">
         <v>12</v>
       </c>
@@ -2456,82 +2444,66 @@
         <v>1</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="9">
-        <v>50</v>
-      </c>
+      <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="8">
-        <v>30</v>
-      </c>
-      <c r="I17" s="9">
-        <v>20</v>
-      </c>
-      <c r="J17" s="9">
-        <v>20</v>
-      </c>
-      <c r="K17" s="9">
-        <v>20</v>
-      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="33"/>
+      <c r="O17" s="31"/>
       <c r="Q17" t="s">
         <v>6</v>
       </c>
       <c r="R17" s="1">
         <f>SUM(B17:O17)</f>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1">
         <f>IF(R17&gt;0,B29/R17,0)</f>
-        <v>142.85714285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
         <v>2</v>
       </c>
-      <c r="B18" s="9">
-        <v>400</v>
-      </c>
+      <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="8">
-        <v>200</v>
-      </c>
-      <c r="I18" s="9">
-        <v>400</v>
-      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
-      <c r="Q18" s="29" t="s">
+      <c r="Q18" s="28" t="s">
         <v>7</v>
       </c>
       <c r="R18" s="1">
         <f>SUM(B18:O18)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1">
         <f>IF(R18&gt;0,C31/R18,0)</f>
-        <v>14.142857142857142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="20">
         <v>3</v>
       </c>
-      <c r="B19" s="33"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -2544,7 +2516,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="33"/>
+      <c r="O19" s="31"/>
       <c r="Q19" t="s">
         <v>8</v>
       </c>
@@ -2561,7 +2533,7 @@
       <c r="A20" s="20">
         <v>4</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -2575,7 +2547,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="Q20" s="29" t="s">
+      <c r="Q20" s="28" t="s">
         <v>9</v>
       </c>
       <c r="R20" s="1">
@@ -2591,7 +2563,7 @@
       <c r="A21" s="20">
         <v>5</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -2604,7 +2576,7 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="33"/>
+      <c r="O21" s="31"/>
       <c r="Q21" t="s">
         <v>10</v>
       </c>
@@ -2635,7 +2607,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="Q22" s="29" t="s">
+      <c r="Q22" s="28" t="s">
         <v>11</v>
       </c>
       <c r="R22" s="1">
@@ -2663,10 +2635,10 @@
       <c r="Q27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R27" s="28" t="s">
+      <c r="R27" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="28"/>
+      <c r="S27" s="50"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B28">
@@ -2711,7 +2683,7 @@
       <c r="O28">
         <v>14</v>
       </c>
-      <c r="Q28" s="29"/>
+      <c r="Q28" s="28"/>
       <c r="R28" s="1" t="s">
         <v>12</v>
       </c>
@@ -2724,59 +2696,59 @@
         <v>4</v>
       </c>
       <c r="B29" s="24">
-        <f>B9</f>
-        <v>20000</v>
+        <f t="shared" ref="B29:O29" si="1">B9</f>
+        <v>0</v>
       </c>
       <c r="C29" s="24">
-        <f>C9</f>
-        <v>7000</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D29" s="24">
-        <f>D9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E29" s="24">
-        <f>E9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F29" s="24">
-        <f>F9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G29" s="24">
-        <f>G9</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="50">
-        <f>H9</f>
-        <v>65000</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I29" s="24">
-        <f>I9</f>
-        <v>33000</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J29" s="24">
-        <f>J9</f>
-        <v>13000</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K29" s="24">
-        <f>K9</f>
-        <v>12000</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L29" s="24">
-        <f>L9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M29" s="24">
-        <f>M9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N29" s="24">
-        <f>N9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O29" s="24">
-        <f>O9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q29" t="s">
@@ -2784,24 +2756,24 @@
       </c>
       <c r="R29" s="1">
         <f>R17</f>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="S29" s="1">
         <f>IF(R29&gt;0,B48/R29,0)</f>
-        <v>40.408163265306122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="34">
         <f>B29*(-1)</f>
-        <v>-20000</v>
+        <v>0</v>
       </c>
       <c r="C30" s="22">
         <f>S17*C17</f>
-        <v>7142.8571428571431</v>
+        <v>0</v>
       </c>
       <c r="D30" s="22">
         <f>S17*D17</f>
@@ -2819,21 +2791,21 @@
         <f>S17*G17</f>
         <v>0</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="30">
         <f>S17*H17</f>
-        <v>4285.7142857142862</v>
+        <v>0</v>
       </c>
       <c r="I30" s="22">
         <f>S17*I17</f>
-        <v>2857.1428571428573</v>
+        <v>0</v>
       </c>
       <c r="J30" s="22">
         <f>S17*J17</f>
-        <v>2857.1428571428573</v>
+        <v>0</v>
       </c>
       <c r="K30" s="22">
         <f>S17*K17</f>
-        <v>2857.1428571428573</v>
+        <v>0</v>
       </c>
       <c r="L30" s="22">
         <f>S17*L17</f>
@@ -2851,81 +2823,81 @@
         <f>S17*O17</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="29" t="s">
+      <c r="Q30" s="28" t="s">
         <v>7</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" ref="R30:R34" si="1">R18</f>
-        <v>1000</v>
+        <f t="shared" ref="R30:R34" si="2">R18</f>
+        <v>0</v>
       </c>
       <c r="S30" s="1">
         <f>IF(R30&gt;0,C50/R30,0)</f>
-        <v>2.0204081632653059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44">
+      <c r="A31" s="41"/>
+      <c r="B31" s="42">
         <f>B29+B30</f>
         <v>0</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="42">
         <f>C29+C30</f>
-        <v>14142.857142857143</v>
-      </c>
-      <c r="D31" s="44">
+        <v>0</v>
+      </c>
+      <c r="D31" s="42">
         <f>D29+D30</f>
         <v>0</v>
       </c>
-      <c r="E31" s="44">
-        <f t="shared" ref="E31:O31" si="2">E29+E30</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="45">
-        <f t="shared" si="2"/>
-        <v>69285.71428571429</v>
-      </c>
-      <c r="I31" s="44">
-        <f t="shared" si="2"/>
-        <v>35857.142857142855</v>
-      </c>
-      <c r="J31" s="44">
-        <f t="shared" si="2"/>
-        <v>15857.142857142857</v>
-      </c>
-      <c r="K31" s="44">
-        <f t="shared" si="2"/>
-        <v>14857.142857142857</v>
-      </c>
-      <c r="L31" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="44">
-        <f t="shared" si="2"/>
+      <c r="E31" s="42">
+        <f t="shared" ref="E31:O31" si="3">E29+E30</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="42">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q31" t="s">
         <v>8</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S31" s="1">
@@ -2939,11 +2911,11 @@
       </c>
       <c r="B32" s="22">
         <f>S18*B18</f>
-        <v>5657.1428571428569</v>
-      </c>
-      <c r="C32" s="36">
+        <v>0</v>
+      </c>
+      <c r="C32" s="34">
         <f>C31*(-1)</f>
-        <v>-14142.857142857143</v>
+        <v>0</v>
       </c>
       <c r="D32" s="22">
         <f>S18*D18</f>
@@ -2961,13 +2933,13 @@
         <f>S18*G18</f>
         <v>0</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="30">
         <f>S18*H18</f>
-        <v>2828.5714285714284</v>
+        <v>0</v>
       </c>
       <c r="I32" s="22">
         <f>S18*I18</f>
-        <v>5657.1428571428569</v>
+        <v>0</v>
       </c>
       <c r="J32" s="22">
         <f>S18*J18</f>
@@ -2993,11 +2965,11 @@
         <f>S18*O18</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="29" t="s">
+      <c r="Q32" s="28" t="s">
         <v>9</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S32" s="1">
@@ -3006,68 +2978,68 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="44">
+      <c r="A33" s="41"/>
+      <c r="B33" s="42">
         <f>B31+B32</f>
-        <v>5657.1428571428569</v>
-      </c>
-      <c r="C33" s="44">
+        <v>0</v>
+      </c>
+      <c r="C33" s="42">
         <f>C31+C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="44">
-        <f t="shared" ref="D33:O33" si="3">D31+D32</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="45">
-        <f t="shared" si="3"/>
-        <v>72114.285714285725</v>
-      </c>
-      <c r="I33" s="44">
-        <f t="shared" si="3"/>
-        <v>41514.28571428571</v>
-      </c>
-      <c r="J33" s="44">
-        <f t="shared" si="3"/>
-        <v>15857.142857142857</v>
-      </c>
-      <c r="K33" s="44">
-        <f t="shared" si="3"/>
-        <v>14857.142857142857</v>
-      </c>
-      <c r="L33" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="44">
-        <f t="shared" si="3"/>
+      <c r="D33" s="42">
+        <f t="shared" ref="D33:O33" si="4">D31+D32</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="42">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q33" t="s">
         <v>10</v>
       </c>
       <c r="R33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S33" s="1">
@@ -3087,7 +3059,7 @@
         <f>S19*C19</f>
         <v>0</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="34">
         <f>D33*(-1)</f>
         <v>0</v>
       </c>
@@ -3135,11 +3107,11 @@
         <f>S19*O19</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="29" t="s">
+      <c r="Q34" s="28" t="s">
         <v>11</v>
       </c>
       <c r="R34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S34" s="1">
@@ -3148,61 +3120,61 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="46">
+      <c r="A35" s="41"/>
+      <c r="B35" s="44">
         <f>B33+B34</f>
-        <v>5657.1428571428569</v>
-      </c>
-      <c r="C35" s="46">
-        <f t="shared" ref="C35:F35" si="4">C33+C34</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="47">
+        <v>0</v>
+      </c>
+      <c r="C35" s="44">
+        <f t="shared" ref="C35:F35" si="5">C33+C34</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="45">
         <f>G33+G34</f>
         <v>0</v>
       </c>
-      <c r="H35" s="46">
+      <c r="H35" s="44">
         <f>H33+H34</f>
-        <v>72114.285714285725</v>
-      </c>
-      <c r="I35" s="46">
+        <v>0</v>
+      </c>
+      <c r="I35" s="44">
         <f>I33+I34</f>
-        <v>41514.28571428571</v>
-      </c>
-      <c r="J35" s="46">
-        <f t="shared" ref="J35:O35" si="5">J33+J34</f>
-        <v>15857.142857142857</v>
-      </c>
-      <c r="K35" s="46">
-        <f t="shared" si="5"/>
-        <v>14857.142857142857</v>
-      </c>
-      <c r="L35" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="46">
-        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="44">
+        <f t="shared" ref="J35:O35" si="6">J33+J34</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="44">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3222,7 +3194,7 @@
         <f>S20*D20</f>
         <v>0</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="34">
         <f>E35*(-1)</f>
         <v>0</v>
       </c>
@@ -3268,61 +3240,61 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="48"/>
-      <c r="B37" s="46">
+      <c r="A37" s="46"/>
+      <c r="B37" s="44">
         <f>B35+B36</f>
-        <v>5657.1428571428569</v>
-      </c>
-      <c r="C37" s="46">
-        <f t="shared" ref="C37:O37" si="6">C35+C36</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="46">
+        <v>0</v>
+      </c>
+      <c r="C37" s="44">
+        <f t="shared" ref="C37:O37" si="7">C35+C36</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="44">
         <f>F35+F36</f>
         <v>0</v>
       </c>
-      <c r="G37" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="49">
-        <f t="shared" si="6"/>
-        <v>72114.285714285725</v>
-      </c>
-      <c r="I37" s="46">
-        <f t="shared" si="6"/>
-        <v>41514.28571428571</v>
-      </c>
-      <c r="J37" s="46">
-        <f t="shared" si="6"/>
-        <v>15857.142857142857</v>
-      </c>
-      <c r="K37" s="46">
-        <f t="shared" si="6"/>
-        <v>14857.142857142857</v>
-      </c>
-      <c r="L37" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="46">
-        <f t="shared" si="6"/>
+      <c r="G37" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="44">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3346,7 +3318,7 @@
         <f>S21*E21</f>
         <v>0</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="34">
         <f>F37*(-1)</f>
         <v>0</v>
       </c>
@@ -3354,7 +3326,7 @@
         <f>S21*G21</f>
         <v>0</v>
       </c>
-      <c r="H38" s="32">
+      <c r="H38" s="30">
         <f>S21*H21</f>
         <v>0</v>
       </c>
@@ -3388,61 +3360,61 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="48"/>
-      <c r="B39" s="46">
+      <c r="A39" s="46"/>
+      <c r="B39" s="44">
         <f>B37+B38</f>
-        <v>5657.1428571428569</v>
-      </c>
-      <c r="C39" s="46">
-        <f t="shared" ref="C39:O39" si="7">C37+C38</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="49">
-        <f t="shared" si="7"/>
-        <v>72114.285714285725</v>
-      </c>
-      <c r="I39" s="46">
-        <f t="shared" si="7"/>
-        <v>41514.28571428571</v>
-      </c>
-      <c r="J39" s="46">
-        <f t="shared" si="7"/>
-        <v>15857.142857142857</v>
-      </c>
-      <c r="K39" s="46">
-        <f t="shared" si="7"/>
-        <v>14857.142857142857</v>
-      </c>
-      <c r="L39" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="46">
-        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="44">
+        <f t="shared" ref="C39:O39" si="8">C37+C38</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="44">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3470,11 +3442,11 @@
         <f>S22*F22</f>
         <v>0</v>
       </c>
-      <c r="G40" s="36">
+      <c r="G40" s="34">
         <f>G39*(-1)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="32">
+      <c r="H40" s="30">
         <f>S22*H22</f>
         <v>0</v>
       </c>
@@ -3508,63 +3480,63 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="41">
+      <c r="B41" s="39">
         <f>B39+B40</f>
-        <v>5657.1428571428569</v>
-      </c>
-      <c r="C41" s="41">
-        <f t="shared" ref="C41:O41" si="8">C39+C40</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="42">
-        <f t="shared" si="8"/>
-        <v>72114.285714285725</v>
-      </c>
-      <c r="I41" s="41">
-        <f t="shared" si="8"/>
-        <v>41514.28571428571</v>
-      </c>
-      <c r="J41" s="41">
-        <f t="shared" si="8"/>
-        <v>15857.142857142857</v>
-      </c>
-      <c r="K41" s="41">
-        <f t="shared" si="8"/>
-        <v>14857.142857142857</v>
-      </c>
-      <c r="L41" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="41">
-        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="39">
+        <f t="shared" ref="C41:O41" si="9">C39+C40</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="39">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3585,10 +3557,10 @@
       <c r="Q46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R46" s="28" t="s">
+      <c r="R46" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="S46" s="28"/>
+      <c r="S46" s="50"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B47">
@@ -3606,10 +3578,10 @@
       <c r="F47">
         <v>5</v>
       </c>
-      <c r="G47" s="38">
+      <c r="G47" s="36">
         <v>6</v>
       </c>
-      <c r="H47" s="39">
+      <c r="H47" s="37">
         <v>7</v>
       </c>
       <c r="I47">
@@ -3633,7 +3605,7 @@
       <c r="O47">
         <v>14</v>
       </c>
-      <c r="Q47" s="29"/>
+      <c r="Q47" s="28"/>
       <c r="R47" s="1" t="s">
         <v>12</v>
       </c>
@@ -3647,7 +3619,7 @@
       </c>
       <c r="B48" s="24">
         <f>B41</f>
-        <v>5657.1428571428569</v>
+        <v>0</v>
       </c>
       <c r="C48" s="24">
         <f>C41</f>
@@ -3658,47 +3630,47 @@
         <v>0</v>
       </c>
       <c r="E48" s="24">
-        <f t="shared" ref="E48:O48" si="9">E41</f>
+        <f t="shared" ref="E48:O48" si="10">E41</f>
         <v>0</v>
       </c>
       <c r="F48" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G48" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="50">
-        <f t="shared" si="9"/>
-        <v>72114.285714285725</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="48">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="I48" s="24">
-        <f t="shared" si="9"/>
-        <v>41514.28571428571</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="J48" s="24">
-        <f t="shared" si="9"/>
-        <v>15857.142857142857</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K48" s="24">
-        <f t="shared" si="9"/>
-        <v>14857.142857142857</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="L48" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M48" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N48" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O48" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q48" t="s">
@@ -3706,24 +3678,24 @@
       </c>
       <c r="R48" s="1">
         <f>R29</f>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="S48" s="1">
         <f>IF(R48&gt;0,B67/R48,0)</f>
-        <v>5.7725947521865884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="36">
+      <c r="B49" s="34">
         <f>B48*(-1)</f>
-        <v>-5657.1428571428569</v>
+        <v>0</v>
       </c>
       <c r="C49" s="22">
         <f>S29*C17</f>
-        <v>2020.408163265306</v>
+        <v>0</v>
       </c>
       <c r="D49" s="22">
         <f>S29*D17</f>
@@ -3741,21 +3713,21 @@
         <f>S29*G17</f>
         <v>0</v>
       </c>
-      <c r="H49" s="32">
+      <c r="H49" s="30">
         <f>S29*H17</f>
-        <v>1212.2448979591836</v>
+        <v>0</v>
       </c>
       <c r="I49" s="22">
         <f>S29*I17</f>
-        <v>808.16326530612241</v>
+        <v>0</v>
       </c>
       <c r="J49" s="22">
         <f>S29*J17</f>
-        <v>808.16326530612241</v>
+        <v>0</v>
       </c>
       <c r="K49" s="22">
         <f>S29*K17</f>
-        <v>808.16326530612241</v>
+        <v>0</v>
       </c>
       <c r="L49" s="22">
         <f>S29*L17</f>
@@ -3773,81 +3745,81 @@
         <f>S29*O17</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="29" t="s">
+      <c r="Q49" s="28" t="s">
         <v>7</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" ref="R49:R53" si="10">R30</f>
-        <v>1000</v>
+        <f t="shared" ref="R49:R53" si="11">R30</f>
+        <v>0</v>
       </c>
       <c r="S49" s="1">
         <f>IF(R49&gt;0,C69/R49,0)</f>
-        <v>0.28862973760932942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="43"/>
-      <c r="B50" s="46">
+      <c r="A50" s="41"/>
+      <c r="B50" s="44">
         <f>B48+B49</f>
         <v>0</v>
       </c>
-      <c r="C50" s="46">
-        <f t="shared" ref="C50:O50" si="11">C48+C49</f>
-        <v>2020.408163265306</v>
-      </c>
-      <c r="D50" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="49">
-        <f t="shared" si="11"/>
-        <v>73326.530612244911</v>
-      </c>
-      <c r="I50" s="46">
-        <f t="shared" si="11"/>
-        <v>42322.448979591834</v>
-      </c>
-      <c r="J50" s="46">
-        <f t="shared" si="11"/>
-        <v>16665.306122448979</v>
-      </c>
-      <c r="K50" s="46">
-        <f t="shared" si="11"/>
-        <v>15665.306122448979</v>
-      </c>
-      <c r="L50" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="46">
-        <f t="shared" si="11"/>
+      <c r="C50" s="44">
+        <f t="shared" ref="C50:O50" si="12">C48+C49</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="47">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="44">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q50" t="s">
         <v>8</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S50" s="1">
@@ -3859,13 +3831,13 @@
       <c r="A51" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B51" s="35">
         <f>S30*B18</f>
-        <v>808.16326530612241</v>
-      </c>
-      <c r="C51" s="36">
+        <v>0</v>
+      </c>
+      <c r="C51" s="34">
         <f>C50*(-1)</f>
-        <v>-2020.408163265306</v>
+        <v>0</v>
       </c>
       <c r="D51" s="22">
         <f>S30*D18</f>
@@ -3883,13 +3855,13 @@
         <f>S30*G18</f>
         <v>0</v>
       </c>
-      <c r="H51" s="32">
+      <c r="H51" s="30">
         <f>S30*H18</f>
-        <v>404.08163265306121</v>
+        <v>0</v>
       </c>
       <c r="I51" s="22">
         <f>S30*I18</f>
-        <v>808.16326530612241</v>
+        <v>0</v>
       </c>
       <c r="J51" s="22">
         <f>S30*J18</f>
@@ -3915,11 +3887,11 @@
         <f>S30*O18</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="29" t="s">
+      <c r="Q51" s="28" t="s">
         <v>9</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S51" s="1">
@@ -3928,68 +3900,68 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="43"/>
-      <c r="B52" s="46">
+      <c r="A52" s="41"/>
+      <c r="B52" s="44">
         <f>B50+B51</f>
-        <v>808.16326530612241</v>
-      </c>
-      <c r="C52" s="46">
-        <f t="shared" ref="C52:O52" si="12">C50+C51</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="46">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="46">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="46">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="46">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="49">
-        <f t="shared" si="12"/>
-        <v>73730.612244897973</v>
-      </c>
-      <c r="I52" s="46">
-        <f t="shared" si="12"/>
-        <v>43130.612244897959</v>
-      </c>
-      <c r="J52" s="46">
-        <f t="shared" si="12"/>
-        <v>16665.306122448979</v>
-      </c>
-      <c r="K52" s="46">
-        <f t="shared" si="12"/>
-        <v>15665.306122448979</v>
-      </c>
-      <c r="L52" s="46">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="46">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N52" s="46">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O52" s="46">
-        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C52" s="44">
+        <f t="shared" ref="C52:O52" si="13">C50+C51</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="47">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="44">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q52" t="s">
         <v>10</v>
       </c>
       <c r="R52" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S52" s="1">
@@ -4001,7 +3973,7 @@
       <c r="A53" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="35">
         <f>S31*B19</f>
         <v>0</v>
       </c>
@@ -4009,7 +3981,7 @@
         <f>S31*C19</f>
         <v>0</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="34">
         <f>D52*(-1)</f>
         <v>0</v>
       </c>
@@ -4025,7 +3997,7 @@
         <f>S31*G19</f>
         <v>0</v>
       </c>
-      <c r="H53" s="32">
+      <c r="H53" s="30">
         <f>S31*H19</f>
         <v>0</v>
       </c>
@@ -4057,11 +4029,11 @@
         <f>S31*O19</f>
         <v>0</v>
       </c>
-      <c r="Q53" s="29" t="s">
+      <c r="Q53" s="28" t="s">
         <v>11</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S53" s="1">
@@ -4070,61 +4042,61 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="43"/>
-      <c r="B54" s="46">
+      <c r="A54" s="41"/>
+      <c r="B54" s="44">
         <f>B52+B53</f>
-        <v>808.16326530612241</v>
-      </c>
-      <c r="C54" s="46">
-        <f t="shared" ref="C54:O54" si="13">C52+C53</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="46">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E54" s="46">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="46">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="46">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="49">
-        <f t="shared" si="13"/>
-        <v>73730.612244897973</v>
-      </c>
-      <c r="I54" s="46">
-        <f t="shared" si="13"/>
-        <v>43130.612244897959</v>
-      </c>
-      <c r="J54" s="46">
-        <f t="shared" si="13"/>
-        <v>16665.306122448979</v>
-      </c>
-      <c r="K54" s="46">
-        <f t="shared" si="13"/>
-        <v>15665.306122448979</v>
-      </c>
-      <c r="L54" s="46">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="46">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="46">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="46">
-        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="44">
+        <f t="shared" ref="C54:O54" si="14">C52+C53</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="47">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="44">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4132,7 +4104,7 @@
       <c r="A55" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="37">
+      <c r="B55" s="35">
         <f>S32*B20</f>
         <v>0</v>
       </c>
@@ -4144,7 +4116,7 @@
         <f>S32*D20</f>
         <v>0</v>
       </c>
-      <c r="E55" s="36">
+      <c r="E55" s="34">
         <f>E54*(-1)</f>
         <v>0</v>
       </c>
@@ -4156,7 +4128,7 @@
         <f>S32*G20</f>
         <v>0</v>
       </c>
-      <c r="H55" s="32">
+      <c r="H55" s="30">
         <f>S32*H20</f>
         <v>0</v>
       </c>
@@ -4190,61 +4162,61 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="48"/>
-      <c r="B56" s="46">
+      <c r="A56" s="46"/>
+      <c r="B56" s="44">
         <f>B54+B55</f>
-        <v>808.16326530612241</v>
-      </c>
-      <c r="C56" s="46">
-        <f t="shared" ref="C56:O56" si="14">C54+C55</f>
-        <v>0</v>
-      </c>
-      <c r="D56" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="49">
-        <f t="shared" si="14"/>
-        <v>73730.612244897973</v>
-      </c>
-      <c r="I56" s="46">
-        <f t="shared" si="14"/>
-        <v>43130.612244897959</v>
-      </c>
-      <c r="J56" s="46">
-        <f t="shared" si="14"/>
-        <v>16665.306122448979</v>
-      </c>
-      <c r="K56" s="46">
-        <f t="shared" si="14"/>
-        <v>15665.306122448979</v>
-      </c>
-      <c r="L56" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O56" s="46">
-        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="44">
+        <f t="shared" ref="C56:O56" si="15">C54+C55</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="44">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4252,7 +4224,7 @@
       <c r="A57" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="37">
+      <c r="B57" s="35">
         <f>S33*B21</f>
         <v>0</v>
       </c>
@@ -4268,7 +4240,7 @@
         <f>S33*E21</f>
         <v>0</v>
       </c>
-      <c r="F57" s="36">
+      <c r="F57" s="34">
         <f>F56*(-1)</f>
         <v>0</v>
       </c>
@@ -4276,7 +4248,7 @@
         <f>S33*G21</f>
         <v>0</v>
       </c>
-      <c r="H57" s="32">
+      <c r="H57" s="30">
         <f>S33*H21</f>
         <v>0</v>
       </c>
@@ -4310,61 +4282,61 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
-      <c r="B58" s="46">
+      <c r="A58" s="46"/>
+      <c r="B58" s="44">
         <f>B56+B57</f>
-        <v>808.16326530612241</v>
-      </c>
-      <c r="C58" s="46">
-        <f t="shared" ref="C58:O58" si="15">C56+C57</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="46">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E58" s="46">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="46">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="46">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="49">
-        <f t="shared" si="15"/>
-        <v>73730.612244897973</v>
-      </c>
-      <c r="I58" s="46">
-        <f t="shared" si="15"/>
-        <v>43130.612244897959</v>
-      </c>
-      <c r="J58" s="46">
-        <f t="shared" si="15"/>
-        <v>16665.306122448979</v>
-      </c>
-      <c r="K58" s="46">
-        <f t="shared" si="15"/>
-        <v>15665.306122448979</v>
-      </c>
-      <c r="L58" s="46">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="46">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="46">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="46">
-        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C58" s="44">
+        <f t="shared" ref="C58:O58" si="16">C56+C57</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="47">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="44">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -4372,7 +4344,7 @@
       <c r="A59" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="37">
+      <c r="B59" s="35">
         <f>S34*B22</f>
         <v>0</v>
       </c>
@@ -4392,11 +4364,11 @@
         <f>S34*F22</f>
         <v>0</v>
       </c>
-      <c r="G59" s="36">
+      <c r="G59" s="34">
         <f>G58*(-1)</f>
         <v>0</v>
       </c>
-      <c r="H59" s="32">
+      <c r="H59" s="30">
         <f>S34*H22</f>
         <v>0</v>
       </c>
@@ -4430,63 +4402,63 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="41">
+      <c r="B60" s="39">
         <f>B58+B59</f>
-        <v>808.16326530612241</v>
-      </c>
-      <c r="C60" s="41">
-        <f t="shared" ref="C60:O60" si="16">C58+C59</f>
-        <v>0</v>
-      </c>
-      <c r="D60" s="41">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E60" s="41">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="41">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="41">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="42">
-        <f t="shared" si="16"/>
-        <v>73730.612244897973</v>
-      </c>
-      <c r="I60" s="41">
-        <f t="shared" si="16"/>
-        <v>43130.612244897959</v>
-      </c>
-      <c r="J60" s="41">
-        <f t="shared" si="16"/>
-        <v>16665.306122448979</v>
-      </c>
-      <c r="K60" s="41">
-        <f t="shared" si="16"/>
-        <v>15665.306122448979</v>
-      </c>
-      <c r="L60" s="41">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="41">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N60" s="41">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O60" s="41">
-        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="C60" s="39">
+        <f t="shared" ref="C60:O60" si="17">C58+C59</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="39">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="39">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="39">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="39">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="40">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="39">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="39">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="39">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="39">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="39">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="39">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="39">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4504,8 +4476,8 @@
       <c r="H65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
+      <c r="R65" s="49"/>
+      <c r="S65" s="49"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B66">
@@ -4523,10 +4495,10 @@
       <c r="F66">
         <v>5</v>
       </c>
-      <c r="G66" s="38">
+      <c r="G66" s="36">
         <v>6</v>
       </c>
-      <c r="H66" s="39">
+      <c r="H66" s="37">
         <v>7</v>
       </c>
       <c r="I66">
@@ -4557,7 +4529,7 @@
       </c>
       <c r="B67" s="24">
         <f>B60</f>
-        <v>808.16326530612241</v>
+        <v>0</v>
       </c>
       <c r="C67" s="24">
         <f>C60</f>
@@ -4568,47 +4540,47 @@
         <v>0</v>
       </c>
       <c r="E67" s="24">
-        <f t="shared" ref="E67:O67" si="17">E60</f>
+        <f t="shared" ref="E67:O67" si="18">E60</f>
         <v>0</v>
       </c>
       <c r="F67" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G67" s="24">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="50">
-        <f t="shared" si="17"/>
-        <v>73730.612244897973</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="48">
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="I67" s="24">
-        <f t="shared" si="17"/>
-        <v>43130.612244897959</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="J67" s="24">
-        <f t="shared" si="17"/>
-        <v>16665.306122448979</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="K67" s="24">
-        <f t="shared" si="17"/>
-        <v>15665.306122448979</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="L67" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M67" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N67" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O67" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4616,13 +4588,13 @@
       <c r="A68" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="36">
+      <c r="B68" s="34">
         <f>B67*(-1)</f>
-        <v>-808.16326530612241</v>
+        <v>0</v>
       </c>
       <c r="C68" s="22">
         <f>S48*C17</f>
-        <v>288.62973760932942</v>
+        <v>0</v>
       </c>
       <c r="D68" s="22">
         <f>S48*D17</f>
@@ -4640,21 +4612,21 @@
         <f>S48*G17</f>
         <v>0</v>
       </c>
-      <c r="H68" s="32">
+      <c r="H68" s="30">
         <f>S48*H17</f>
-        <v>173.17784256559764</v>
+        <v>0</v>
       </c>
       <c r="I68" s="22">
         <f>S48*I17</f>
-        <v>115.45189504373177</v>
+        <v>0</v>
       </c>
       <c r="J68" s="22">
         <f>S48*J17</f>
-        <v>115.45189504373177</v>
+        <v>0</v>
       </c>
       <c r="K68" s="22">
         <f>S48*K17</f>
-        <v>115.45189504373177</v>
+        <v>0</v>
       </c>
       <c r="L68" s="22">
         <f>S48*L36</f>
@@ -4674,60 +4646,60 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" s="43"/>
-      <c r="B69" s="46">
+      <c r="A69" s="41"/>
+      <c r="B69" s="44">
         <f>B67+B68</f>
         <v>0</v>
       </c>
-      <c r="C69" s="46">
-        <f t="shared" ref="C69:N69" si="18">C67+C68</f>
-        <v>288.62973760932942</v>
-      </c>
-      <c r="D69" s="46">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E69" s="46">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="F69" s="46">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="46">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="49">
-        <f t="shared" si="18"/>
-        <v>73903.790087463567</v>
-      </c>
-      <c r="I69" s="46">
-        <f t="shared" si="18"/>
-        <v>43246.064139941693</v>
-      </c>
-      <c r="J69" s="46">
-        <f t="shared" si="18"/>
-        <v>16780.75801749271</v>
-      </c>
-      <c r="K69" s="46">
-        <f t="shared" si="18"/>
-        <v>15780.758017492712</v>
-      </c>
-      <c r="L69" s="46">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="46">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N69" s="46">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O69" s="46">
+      <c r="C69" s="44">
+        <f t="shared" ref="C69:N69" si="19">C67+C68</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="47">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="44">
         <f>O67+O68</f>
         <v>0</v>
       </c>
@@ -4736,13 +4708,13 @@
       <c r="A70" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="37">
+      <c r="B70" s="35">
         <f>S49*B18</f>
-        <v>115.45189504373177</v>
-      </c>
-      <c r="C70" s="36">
+        <v>0</v>
+      </c>
+      <c r="C70" s="34">
         <f>C69*(-1)</f>
-        <v>-288.62973760932942</v>
+        <v>0</v>
       </c>
       <c r="D70" s="22">
         <f>S49*D18</f>
@@ -4760,13 +4732,13 @@
         <f>S49*G18</f>
         <v>0</v>
       </c>
-      <c r="H70" s="32">
+      <c r="H70" s="30">
         <f>S49*H18</f>
-        <v>57.725947521865884</v>
+        <v>0</v>
       </c>
       <c r="I70" s="22">
         <f>S49*I18</f>
-        <v>115.45189504373177</v>
+        <v>0</v>
       </c>
       <c r="J70" s="22">
         <f>S49*J18</f>
@@ -4794,61 +4766,61 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" s="43"/>
-      <c r="B71" s="46">
+      <c r="A71" s="41"/>
+      <c r="B71" s="44">
         <f>B69+B70</f>
-        <v>115.45189504373177</v>
-      </c>
-      <c r="C71" s="46">
-        <f t="shared" ref="C71:O71" si="19">C69+C70</f>
-        <v>0</v>
-      </c>
-      <c r="D71" s="46">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="46">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="F71" s="46">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="46">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="49">
-        <f t="shared" si="19"/>
-        <v>73961.516034985427</v>
-      </c>
-      <c r="I71" s="46">
-        <f t="shared" si="19"/>
-        <v>43361.516034985427</v>
-      </c>
-      <c r="J71" s="46">
-        <f t="shared" si="19"/>
-        <v>16780.75801749271</v>
-      </c>
-      <c r="K71" s="46">
-        <f t="shared" si="19"/>
-        <v>15780.758017492712</v>
-      </c>
-      <c r="L71" s="46">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M71" s="46">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N71" s="46">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O71" s="46">
-        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="C71" s="44">
+        <f t="shared" ref="C71:O71" si="20">C69+C70</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="47">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="44">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -4856,7 +4828,7 @@
       <c r="A72" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="37">
+      <c r="B72" s="35">
         <f>S50*B19</f>
         <v>0</v>
       </c>
@@ -4864,7 +4836,7 @@
         <f>S50*C19</f>
         <v>0</v>
       </c>
-      <c r="D72" s="36">
+      <c r="D72" s="34">
         <f>D71*(-1)</f>
         <v>0</v>
       </c>
@@ -4880,7 +4852,7 @@
         <f>S50*G19</f>
         <v>0</v>
       </c>
-      <c r="H72" s="32">
+      <c r="H72" s="30">
         <f>S50*H19</f>
         <v>0</v>
       </c>
@@ -4914,61 +4886,61 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" s="43"/>
-      <c r="B73" s="46">
+      <c r="A73" s="41"/>
+      <c r="B73" s="44">
         <f>B71+B72</f>
-        <v>115.45189504373177</v>
-      </c>
-      <c r="C73" s="46">
-        <f t="shared" ref="C73:O73" si="20">C71+C72</f>
-        <v>0</v>
-      </c>
-      <c r="D73" s="46">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="46">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F73" s="46">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="46">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="49">
-        <f t="shared" si="20"/>
-        <v>73961.516034985427</v>
-      </c>
-      <c r="I73" s="46">
-        <f t="shared" si="20"/>
-        <v>43361.516034985427</v>
-      </c>
-      <c r="J73" s="46">
-        <f t="shared" si="20"/>
-        <v>16780.75801749271</v>
-      </c>
-      <c r="K73" s="46">
-        <f t="shared" si="20"/>
-        <v>15780.758017492712</v>
-      </c>
-      <c r="L73" s="46">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M73" s="46">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="N73" s="46">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="O73" s="46">
-        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C73" s="44">
+        <f t="shared" ref="C73:O73" si="21">C71+C72</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="44">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="44">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="44">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="44">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="47">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="44">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="44">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="44">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="44">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="44">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="44">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="44">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -4976,7 +4948,7 @@
       <c r="A74" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="37">
+      <c r="B74" s="35">
         <f>S51*B20</f>
         <v>0</v>
       </c>
@@ -4988,7 +4960,7 @@
         <f>S51*D20</f>
         <v>0</v>
       </c>
-      <c r="E74" s="36">
+      <c r="E74" s="34">
         <f>E73*(-1)</f>
         <v>0</v>
       </c>
@@ -5000,7 +4972,7 @@
         <f>S51*G20</f>
         <v>0</v>
       </c>
-      <c r="H74" s="32">
+      <c r="H74" s="30">
         <f>S51*H20</f>
         <v>0</v>
       </c>
@@ -5034,61 +5006,61 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75" s="48"/>
-      <c r="B75" s="46">
+      <c r="A75" s="46"/>
+      <c r="B75" s="44">
         <f>B73+B74</f>
-        <v>115.45189504373177</v>
-      </c>
-      <c r="C75" s="46">
-        <f t="shared" ref="C75:O75" si="21">C73+C74</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="46">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="46">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F75" s="46">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="46">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="49">
-        <f t="shared" si="21"/>
-        <v>73961.516034985427</v>
-      </c>
-      <c r="I75" s="46">
-        <f t="shared" si="21"/>
-        <v>43361.516034985427</v>
-      </c>
-      <c r="J75" s="46">
-        <f t="shared" si="21"/>
-        <v>16780.75801749271</v>
-      </c>
-      <c r="K75" s="46">
-        <f t="shared" si="21"/>
-        <v>15780.758017492712</v>
-      </c>
-      <c r="L75" s="46">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M75" s="46">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N75" s="46">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O75" s="46">
-        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="C75" s="44">
+        <f t="shared" ref="C75:O75" si="22">C73+C74</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="44">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="44">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="44">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="44">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="47">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="44">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="44">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="44">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="44">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="44">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="44">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="44">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -5096,7 +5068,7 @@
       <c r="A76" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="37">
+      <c r="B76" s="35">
         <f>S52*B21</f>
         <v>0</v>
       </c>
@@ -5112,7 +5084,7 @@
         <f>S52*E21</f>
         <v>0</v>
       </c>
-      <c r="F76" s="36">
+      <c r="F76" s="34">
         <f>F75*(-1)</f>
         <v>0</v>
       </c>
@@ -5120,7 +5092,7 @@
         <f>S52*G21</f>
         <v>0</v>
       </c>
-      <c r="H76" s="32">
+      <c r="H76" s="30">
         <f>S52*H21</f>
         <v>0</v>
       </c>
@@ -5154,61 +5126,61 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A77" s="48"/>
-      <c r="B77" s="46">
+      <c r="A77" s="46"/>
+      <c r="B77" s="44">
         <f>B75+B76</f>
-        <v>115.45189504373177</v>
-      </c>
-      <c r="C77" s="46">
-        <f t="shared" ref="C77:O77" si="22">C75+C76</f>
-        <v>0</v>
-      </c>
-      <c r="D77" s="46">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="46">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="F77" s="46">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="46">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="49">
-        <f t="shared" si="22"/>
-        <v>73961.516034985427</v>
-      </c>
-      <c r="I77" s="46">
-        <f t="shared" si="22"/>
-        <v>43361.516034985427</v>
-      </c>
-      <c r="J77" s="46">
-        <f t="shared" si="22"/>
-        <v>16780.75801749271</v>
-      </c>
-      <c r="K77" s="46">
-        <f t="shared" si="22"/>
-        <v>15780.758017492712</v>
-      </c>
-      <c r="L77" s="46">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="46">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="N77" s="46">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O77" s="46">
-        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C77" s="44">
+        <f t="shared" ref="C77:O77" si="23">C75+C76</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="44">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="44">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="44">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="44">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="47">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="44">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="44">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="44">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="44">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="44">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="44">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="44">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -5216,7 +5188,7 @@
       <c r="A78" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="37">
+      <c r="B78" s="35">
         <f>S53*B22</f>
         <v>0</v>
       </c>
@@ -5236,11 +5208,11 @@
         <f>S53*F22</f>
         <v>0</v>
       </c>
-      <c r="G78" s="36">
+      <c r="G78" s="34">
         <f>G77*(-1)</f>
         <v>0</v>
       </c>
-      <c r="H78" s="32">
+      <c r="H78" s="30">
         <f>S53*H22</f>
         <v>0</v>
       </c>
@@ -5274,78 +5246,78 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="40" t="s">
+      <c r="A79" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B79" s="41">
+      <c r="B79" s="39">
         <f>B77+B78</f>
-        <v>115.45189504373177</v>
-      </c>
-      <c r="C79" s="41">
-        <f t="shared" ref="C79:O79" si="23">C77+C78</f>
-        <v>0</v>
-      </c>
-      <c r="D79" s="41">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="41">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="F79" s="41">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="41">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H79" s="42">
-        <f t="shared" si="23"/>
-        <v>73961.516034985427</v>
-      </c>
-      <c r="I79" s="41">
-        <f t="shared" si="23"/>
-        <v>43361.516034985427</v>
-      </c>
-      <c r="J79" s="41">
-        <f t="shared" si="23"/>
-        <v>16780.75801749271</v>
-      </c>
-      <c r="K79" s="41">
-        <f t="shared" si="23"/>
-        <v>15780.758017492712</v>
-      </c>
-      <c r="L79" s="41">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M79" s="41">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N79" s="41">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="O79" s="41">
-        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="C79" s="39">
+        <f t="shared" ref="C79:O79" si="24">C77+C78</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="40">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O79" s="39">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R84" s="30"/>
-      <c r="S84" s="30"/>
+      <c r="R84" s="49"/>
+      <c r="S84" s="49"/>
     </row>
     <row r="103" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R103" s="30"/>
-      <c r="S103" s="30"/>
+      <c r="R103" s="49"/>
+      <c r="S103" s="49"/>
     </row>
     <row r="122" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R122" s="30"/>
-      <c r="S122" s="30"/>
+      <c r="R122" s="49"/>
+      <c r="S122" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="7">
